--- a/biology/Zoologie/Continenticola/Continenticola.xlsx
+++ b/biology/Zoologie/Continenticola/Continenticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Continenticola sont un sous-ordre de vers plats aquatiques ou terrestres de l'ordre des Tricladida.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,13 +551,85 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le sous-ordre des Continenticola a été créé en 1998 par Salvador Carranza (d), Tim Littlewood (d), Karen A. Clough (d), Iñaki Ruiz-Trillo (d), Jaume Baguñà (d) et Marta Riutort (d)[1],[2]. Le nom valide complet de ce taxon est ainsi Continenticola Carranza, Littlewood, Clough, Ruiz-Trillo, Baguna &amp; Riutort, 1998[1].
-Phylogénie
-Arbre phylogénétique des Tricladida[3]
-Sous-taxons
-Selon la base de données World Register of Marine Species                               (12 janvier 2024)[1], le sous-ordre des Continenticola regroupe les super-familles et familles suivantes : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sous-ordre des Continenticola a été créé en 1998 par Salvador Carranza (d), Tim Littlewood (d), Karen A. Clough (d), Iñaki Ruiz-Trillo (d), Jaume Baguñà (d) et Marta Riutort (d),. Le nom valide complet de ce taxon est ainsi Continenticola Carranza, Littlewood, Clough, Ruiz-Trillo, Baguna &amp; Riutort, 1998.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Continenticola</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Continenticola</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arbre phylogénétique des Tricladida
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Continenticola</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Continenticola</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sous-taxons</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon la base de données World Register of Marine Species                               (12 janvier 2024), le sous-ordre des Continenticola regroupe les super-familles et familles suivantes : 
 Sous-ordre des Continenticola
 super-famille des Geoplanoidea Stimpson, 1857
 famille des Dugesiidae Ball, 1974
